--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_7_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_7_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3466069357255727</v>
+        <v>0.08956533242289277</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3466069357255727</v>
+        <v>0.08956533242289277</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.331432979335894</v>
+        <v>7.034398082287541</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.678752771130641, 15.341618729802429]</t>
+          <t>[-1.527534503562955, 15.596330668138037]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2891190042309595</v>
+        <v>0.1049309926159205</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2891190042309595</v>
+        <v>0.1049309926159205</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8931054190385392</v>
+        <v>-0.704421175579693</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.0315533352373505, 2.245342497160272]</t>
+          <t>[-3.4906585039886577, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.5693952357632805</v>
+        <v>0.6130937499450437</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5693952357632805</v>
+        <v>0.6130937499450437</v>
       </c>
       <c r="T2" t="n">
-        <v>13.05901839126479</v>
+        <v>11.79098342178275</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.910246334742104, 18.20779044778748]</t>
+          <t>[7.3136998401855315, 16.268267003379965]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.405626017835786e-06</v>
+        <v>3.32047355944276e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>6.405626017835786e-06</v>
+        <v>3.32047355944276e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>3.270690690690714</v>
+        <v>2.553913913913927</v>
       </c>
       <c r="Y2" t="n">
-        <v>-8.222792792792845</v>
+        <v>-7.547727727727766</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.76417417417427</v>
+        <v>12.65555555555562</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1462728346310375</v>
+        <v>0.1967904419187551</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1462728346310375</v>
+        <v>0.1967904419187551</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.042741087545926</v>
+        <v>5.295662132099351</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.4411313844886617, 14.526613559580513]</t>
+          <t>[-2.76771482863941, 13.359039092838113]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1583233361144094</v>
+        <v>0.1925941739819939</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1583233361144094</v>
+        <v>0.1925941739819939</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.6037895790683088</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.94350068828989, 2.257921446724196]</t>
+          <t>[-3.7359480204851594, 2.528368862348542]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5867788707686588</v>
+        <v>0.6996537757473802</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5867788707686588</v>
+        <v>0.6996537757473802</v>
       </c>
       <c r="T3" t="n">
-        <v>12.44719104493229</v>
+        <v>12.47390300730432</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.148458587464184, 16.7459235024004]</t>
+          <t>[8.310360059147563, 16.637445955461075]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.542567353966632e-07</v>
+        <v>2.777673280274229e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>5.542567353966632e-07</v>
+        <v>2.777673280274229e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.086426426426446</v>
+        <v>2.189069069069085</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.268858858858918</v>
+        <v>-9.16672672672677</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.44171171171181</v>
+        <v>13.54486486486494</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2771772333212049</v>
+        <v>0.03231734984301071</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2771772333212049</v>
+        <v>0.03231734984301071</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.614392201481812</v>
+        <v>6.474113786740585</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.9030158179391687, 12.131800220902793]</t>
+          <t>[0.14678113259702918, 12.80144644088414]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2227568152953217</v>
+        <v>0.04512738876216416</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2227568152953217</v>
+        <v>0.04512738876216416</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8553685703467702</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.9749480621996987, 2.2642109215061583]</t>
+          <t>[-2.4780530640928498, 0.3899474364816151]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5835069123729602</v>
+        <v>0.1494908318628199</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5835069123729602</v>
+        <v>0.1494908318628199</v>
       </c>
       <c r="T4" t="n">
-        <v>10.40841570062018</v>
+        <v>10.80889572643312</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.3630544887924945, 14.453776912447863]</t>
+          <t>[7.4455467223527485, 14.172244730513494]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.004404282749064e-06</v>
+        <v>6.188407031260112e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>5.004404282749064e-06</v>
+        <v>6.188407031260112e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>3.132492492492513</v>
+        <v>3.785265265265288</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.29189189189195</v>
+        <v>-1.413773773773777</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.55687687687698</v>
+        <v>8.984304304304352</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2228268582372888</v>
+        <v>0.4909157148357659</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2228268582372888</v>
+        <v>0.4909157148357659</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.004728990659669</v>
+        <v>3.612682868763351</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.8607541914614227, 12.87021217278076]</t>
+          <t>[-4.563623752427267, 11.788989489953968]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2065634395585838</v>
+        <v>0.3782381493039351</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2065634395585838</v>
+        <v>0.3782381493039351</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.5534737808126167</v>
+        <v>-0.2893158399702314</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.6793427474475062, 2.572395185822273]</t>
+          <t>[-3.408895331823159, 2.8302636518826962]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7230416635955703</v>
+        <v>0.8526634406416118</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7230416635955703</v>
+        <v>0.8526634406416118</v>
       </c>
       <c r="T5" t="n">
-        <v>10.9016885790892</v>
+        <v>11.09135961807872</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.809772423419805, 14.993604734758588]</t>
+          <t>[6.718030351046394, 15.464688885111038]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.695793720919326e-06</v>
+        <v>6.414265443233091e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.695793720919326e-06</v>
+        <v>6.414265443233091e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>2.026906906906923</v>
+        <v>1.048928928928934</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.420510510510574</v>
+        <v>-10.26126126126132</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.47432432432442</v>
+        <v>12.35911911911918</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4762775969540295</v>
+        <v>0.2649440241303815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4762775969540295</v>
+        <v>0.2649440241303815</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.819982969839823</v>
+        <v>4.773747754174549</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.306522974000437, 11.946488913680081]</t>
+          <t>[-2.3820810818041025, 11.9295765901532]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3488181932710779</v>
+        <v>0.1858028306879234</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3488181932710779</v>
+        <v>0.1858028306879234</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1698158191129613</v>
+        <v>-0.06289474781961513</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.9686320970858504, 3.308263735311773]</t>
+          <t>[-3.1887637144545042, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9137032351333503</v>
+        <v>0.9678536711184469</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9137032351333503</v>
+        <v>0.9678536711184469</v>
       </c>
       <c r="T6" t="n">
-        <v>10.59722714937597</v>
+        <v>11.23765287795921</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.0890934988191265, 15.10536079993282]</t>
+          <t>[7.02754297756451, 15.447762778353907]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.214174951586934e-05</v>
+        <v>2.605601418403936e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.214174951586934e-05</v>
+        <v>2.605601418403936e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>22.38810810810826</v>
+        <v>0.228028028028028</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.8946246246247</v>
+        <v>-11.10496496496502</v>
       </c>
       <c r="Z6" t="n">
-        <v>33.88159159159182</v>
+        <v>11.56102102102108</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6901350999962641</v>
+        <v>0.03773031785349157</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6901350999962641</v>
+        <v>0.03773031785349157</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2.767182767558216</v>
+        <v>6.351388862449644</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.864659084999769, 11.3990246201162]</t>
+          <t>[-0.18535578477766812, 12.888133509676956]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.5217667762841227</v>
+        <v>0.05656961567851493</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5217667762841227</v>
+        <v>0.05656961567851493</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5471843060306538</v>
+        <v>0.4717106086471148</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.578684660604235, 3.6730532726655425]</t>
+          <t>[-1.1321054607530785, 2.075526678047308]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7260573148420089</v>
+        <v>0.5565590026881657</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7260573148420089</v>
+        <v>0.5565590026881657</v>
       </c>
       <c r="T7" t="n">
-        <v>11.76127922763436</v>
+        <v>10.95827495825596</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.171216312673959, 16.351342142594767]</t>
+          <t>[7.520991703093516, 14.39555821341841]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.375459776413294e-06</v>
+        <v>7.387356237842369e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>5.375459776413294e-06</v>
+        <v>7.387356237842369e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>21.00612612612627</v>
+        <v>21.06978978978991</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.55870870870878</v>
+        <v>15.25507507507517</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.45354354354377</v>
+        <v>26.88450450450465</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1240217855293897</v>
+        <v>0.2159544491248743</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1240217855293897</v>
+        <v>0.2159544491248743</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.958483849797933</v>
+        <v>5.4736604706929</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.9488223677183765, 15.865790067314242]</t>
+          <t>[-2.481004820383406, 13.428325761769207]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1226224857649605</v>
+        <v>0.172601849072237</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1226224857649605</v>
+        <v>0.172601849072237</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3207632138800385</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.547210796362541, 2.188737224122618]</t>
+          <t>[-2.0063424554457345, 4.157342830876583]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7310625899045284</v>
+        <v>0.4857504624036335</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7310625899045284</v>
+        <v>0.4857504624036335</v>
       </c>
       <c r="T8" t="n">
-        <v>12.88006526025024</v>
+        <v>10.99759057042256</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.07765701410738, 17.682473506393094]</t>
+          <t>[6.694378454291696, 15.300802686553434]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.388411139309099e-06</v>
+        <v>5.622778271874296e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.388411139309099e-06</v>
+        <v>5.622778271874296e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>21.83531531531547</v>
+        <v>18.88072072072082</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.99450450450461</v>
+        <v>7.707347347347389</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.67612612612632</v>
+        <v>30.05409409409426</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.505786052807549</v>
+        <v>0.24978952569709</v>
       </c>
       <c r="I9" t="n">
-        <v>0.505786052807549</v>
+        <v>0.24978952569709</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.014321721437184</v>
+        <v>4.841338410673509</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-5.465715065809011, 13.49435850868338]</t>
+          <t>[-2.4759657434170457, 12.158642564764063]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3982470485927758</v>
+        <v>0.1893755501338448</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3982470485927758</v>
+        <v>0.1893755501338448</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5849211547224238</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.5535267614763884, 3.723369070921236]</t>
+          <t>[-1.8868424345884645, 4.289421801297776]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.709145957153668</v>
+        <v>0.4374436396391208</v>
       </c>
       <c r="S9" t="n">
-        <v>0.709145957153668</v>
+        <v>0.4374436396391208</v>
       </c>
       <c r="T9" t="n">
-        <v>13.01457061331589</v>
+        <v>12.39369698745238</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.126499885763668, 17.90264134086812]</t>
+          <t>[8.40329574156707, 16.38409823333769]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.726838978173163e-06</v>
+        <v>1.302333070274386e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.726838978173163e-06</v>
+        <v>1.302333070274386e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>20.86792792792807</v>
+        <v>18.42466466466476</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.37444444444451</v>
+        <v>7.228488488488527</v>
       </c>
       <c r="Z9" t="n">
-        <v>32.36141141141164</v>
+        <v>29.620840840841</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2251618859824437</v>
+        <v>0.178738852024634</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2251618859824437</v>
+        <v>0.178738852024634</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.475982617566267</v>
+        <v>5.854488855029682</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.4952935358165114, 13.447258770949045]</t>
+          <t>[-2.018198826057846, 13.72717653611721]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1733011569093295</v>
+        <v>0.1411730199289232</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1733011569093295</v>
+        <v>0.1411730199289232</v>
       </c>
       <c r="P10" t="n">
-        <v>1.717026615475503</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2264475824825007, 4.660500813433507]</t>
+          <t>[-1.0692107129334634, 4.377474448245238]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2462168738749657</v>
+        <v>0.227566328014889</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2462168738749657</v>
+        <v>0.227566328014889</v>
       </c>
       <c r="T10" t="n">
-        <v>11.08089681180531</v>
+        <v>12.22962748167134</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.624366409793444, 15.537427213817184]</t>
+          <t>[7.805691223231705, 16.653563740110968]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.95880318374509e-06</v>
+        <v>1.361379815767449e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>8.95880318374509e-06</v>
+        <v>1.361379815767449e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>17.56498498498523</v>
+        <v>17.84376376376402</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.242102102102189</v>
+        <v>7.34600600600611</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.88786786786827</v>
+        <v>28.34152152152193</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03373573102445826</v>
+        <v>0.4218897219190658</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03373573102445826</v>
+        <v>0.4218897219190658</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.158557822949428</v>
+        <v>4.532586587048069</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.4023459789864354, 15.91476966691242]</t>
+          <t>[-4.7514670591755355, 13.816640233271674]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03968008425636915</v>
+        <v>0.330712641485599</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03968008425636915</v>
+        <v>0.330712641485599</v>
       </c>
       <c r="P11" t="n">
-        <v>1.17613178422681</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.2830263651882694, 2.6352899336418885]</t>
+          <t>[-2.0755266780473107, 4.1762112552224675]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1114816147584385</v>
+        <v>0.5020153779220138</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1114816147584385</v>
+        <v>0.5020153779220138</v>
       </c>
       <c r="T11" t="n">
-        <v>11.63123372535334</v>
+        <v>13.12816534460079</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.328194518627978, 15.934272932078699]</t>
+          <t>[8.255043390241742, 18.001287298959834]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.069815313587853e-06</v>
+        <v>2.2011607889727e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.069815313587853e-06</v>
+        <v>2.2011607889727e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>19.64568568568596</v>
+        <v>20.1712112112115</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.03263263263283</v>
+        <v>8.121821821821939</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.25873873873909</v>
+        <v>32.22060060060106</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1759407814286814</v>
+        <v>0.01637007527459189</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1759407814286814</v>
+        <v>0.01637007527459189</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.115646148108564</v>
+        <v>9.226577861205339</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.1168261117548592, 12.348118407971988]</t>
+          <t>[0.7229433093720488, 17.73021241303863]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1611690522306304</v>
+        <v>0.03411043210895004</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1611690522306304</v>
+        <v>0.03411043210895004</v>
       </c>
       <c r="P12" t="n">
-        <v>1.037763339023655</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.0377898293555416, 4.113316507402852]</t>
+          <t>[-0.28931583997023136, 1.635263443310003]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5002354833753859</v>
+        <v>0.1658386942220593</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5002354833753859</v>
+        <v>0.1658386942220593</v>
       </c>
       <c r="T12" t="n">
-        <v>10.02111105453603</v>
+        <v>11.67484468526416</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.185688187935401, 13.856533921136656]</t>
+          <t>[7.308923597718001, 16.040765772810317]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.821657852620675e-06</v>
+        <v>2.520570201225425e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.821657852620675e-06</v>
+        <v>2.520570201225425e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>20.17795795795824</v>
+        <v>21.62586586586617</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.346996996997115</v>
+        <v>17.91649649649675</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.00891891891937</v>
+        <v>25.3352352352356</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02347603345974802</v>
+        <v>0.6414390034531265</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02347603345974802</v>
+        <v>0.6414390034531265</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8.034530139457445</v>
+        <v>2.911015843793296</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.25422961529168653, 15.814830663623203]</t>
+          <t>[-5.355908252929237, 11.17793994051583]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0432588252363808</v>
+        <v>0.4818451157041435</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0432588252363808</v>
+        <v>0.4818451157041435</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7861843477451931</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.00628947478196018, 1.566079220708426]</t>
+          <t>[-2.2705003962881185, 3.9938164865455827]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.04825669859988757</v>
+        <v>0.5822668208007529</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04825669859988757</v>
+        <v>0.5822668208007529</v>
       </c>
       <c r="T13" t="n">
-        <v>10.68932030401791</v>
+        <v>11.20668762466429</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.694194823020083, 14.684445785015733]</t>
+          <t>[6.834956963943229, 15.578418285385345]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.49488998105285e-06</v>
+        <v>5.335360393265987e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.49488998105285e-06</v>
+        <v>5.335360393265987e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>21.14572572572602</v>
+        <v>20.89853853853884</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.1456456456459</v>
+        <v>8.824904904905031</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.14580580580615</v>
+        <v>32.97217217217264</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1881608659345622</v>
+        <v>0.445760795349372</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1881608659345622</v>
+        <v>0.445760795349372</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.00072884479443</v>
+        <v>3.898485268692893</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.396692141896853, 12.398149831485712]</t>
+          <t>[-4.505117269817758, 12.302087807203543]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1801172603787282</v>
+        <v>0.3551074590829546</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1801172603787282</v>
+        <v>0.3551074590829546</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6478159025420389</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.4403162154010807, 3.7359480204851585]</t>
+          <t>[-2.226474072814388, 4.050421759583236]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6746645345544913</v>
+        <v>0.5612961292497545</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6746645345544913</v>
+        <v>0.5612961292497545</v>
       </c>
       <c r="T14" t="n">
-        <v>11.5299111780865</v>
+        <v>12.62846919451607</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.712084691035841, 15.34773766513716]</t>
+          <t>[8.299411923061701, 16.95752646597043]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.353828596479701e-07</v>
+        <v>4.778328046572966e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.353828596479701e-07</v>
+        <v>4.778328046572966e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>21.6779979979983</v>
+        <v>20.70458458458488</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.79864864864879</v>
+        <v>8.606706706706833</v>
       </c>
       <c r="Z14" t="n">
-        <v>33.55734734734781</v>
+        <v>32.80246246246293</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1542946126694734</v>
+        <v>0.2501368687555463</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1542946126694734</v>
+        <v>0.2501368687555463</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.865214282083981</v>
+        <v>5.686863483889277</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.474654243363716, 16.205082807531678]</t>
+          <t>[-2.937488879658374, 14.311215847436927]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1457199319750517</v>
+        <v>0.1908448773431952</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1457199319750517</v>
+        <v>0.1908448773431952</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7861843477451931</v>
+        <v>0.3207632138800385</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.3333951441077354, 3.9057638395981216]</t>
+          <t>[-2.7925268031909276, 3.4340532309510046]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.6142222155545398</v>
+        <v>0.8365449654750285</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6142222155545398</v>
+        <v>0.8365449654750285</v>
       </c>
       <c r="T15" t="n">
-        <v>12.03714708895507</v>
+        <v>12.30083703211145</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.093642584576324, 16.98065159333381]</t>
+          <t>[7.5374479548934294, 17.064226109329468]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.264576978754484e-05</v>
+        <v>4.694949261141446e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.264576978754484e-05</v>
+        <v>4.694949261141446e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>21.14572572572602</v>
+        <v>22.98354354354387</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.145405405405532</v>
+        <v>10.9826426426428</v>
       </c>
       <c r="Z15" t="n">
-        <v>33.14604604604651</v>
+        <v>34.98444444444495</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_7_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_7_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08956533242289277</v>
+        <v>0.1726041137616763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08956533242289277</v>
+        <v>0.1726041137616763</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.034398082287541</v>
+        <v>5.707470972809665</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.527534503562955, 15.596330668138037]</t>
+          <t>[-2.1188337174617935, 13.533775663081123]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1049309926159205</v>
+        <v>0.1488379020112944</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1049309926159205</v>
+        <v>0.1488379020112944</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.704421175579693</v>
+        <v>-1.031473864241693</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.4906585039886577, 2.081816152829272]</t>
+          <t>[-4.1573428308765825, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.6130937499450437</v>
+        <v>0.5096893261346533</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6130937499450437</v>
+        <v>0.5096893261346533</v>
       </c>
       <c r="T2" t="n">
-        <v>11.79098342178275</v>
+        <v>12.6819682820429</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.3136998401855315, 16.268267003379965]</t>
+          <t>[8.463559104454433, 16.900377459631365]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.32047355944276e-06</v>
+        <v>2.586451177677418e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.32047355944276e-06</v>
+        <v>2.586451177677418e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>2.553913913913927</v>
+        <v>3.759359359359379</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.547727727727766</v>
+        <v>-7.633333333333383</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.65555555555562</v>
+        <v>15.15205205205214</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1967904419187551</v>
+        <v>0.18208678036165</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1967904419187551</v>
+        <v>0.18208678036165</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.295662132099351</v>
+        <v>5.632879965976161</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.76771482863941, 13.359039092838113]</t>
+          <t>[-2.8586065517645887, 14.124366483716912]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1925941739819939</v>
+        <v>0.1882446320253939</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1925941739819939</v>
+        <v>0.1882446320253939</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6037895790683088</v>
+        <v>-0.7421580242714629</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.7359480204851594, 2.528368862348542]</t>
+          <t>[-3.849158566560467, 2.364842518017541]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6996537757473802</v>
+        <v>0.6327754041237688</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6996537757473802</v>
+        <v>0.6327754041237688</v>
       </c>
       <c r="T3" t="n">
-        <v>12.47390300730432</v>
+        <v>12.23439204738878</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.310360059147563, 16.637445955461075]</t>
+          <t>[7.944113674057128, 16.524670420720433]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.777673280274229e-07</v>
+        <v>7.491490598976469e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.777673280274229e-07</v>
+        <v>7.491490598976469e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>2.189069069069085</v>
+        <v>2.704904904904922</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.16672672672677</v>
+        <v>-8.619019019019071</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.54486486486494</v>
+        <v>14.02882882882891</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03231734984301071</v>
+        <v>0.3059236345140268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03231734984301071</v>
+        <v>0.3059236345140268</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.474113786740585</v>
+        <v>4.680977900415932</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.14678113259702918, 12.80144644088414]</t>
+          <t>[-3.577553139974513, 12.939508940806377]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.04512738876216416</v>
+        <v>0.2596571844593407</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04512738876216416</v>
+        <v>0.2596571844593407</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.044052813805617</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.4780530640928498, 0.3899474364816151]</t>
+          <t>[-4.10702703262089, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1494908318628199</v>
+        <v>0.5235608107259564</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1494908318628199</v>
+        <v>0.5235608107259564</v>
       </c>
       <c r="T4" t="n">
-        <v>10.80889572643312</v>
+        <v>10.97249472459902</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.4455467223527485, 14.172244730513494]</t>
+          <t>[6.721757834794225, 15.223231614403822]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.188407031260112e-08</v>
+        <v>4.728552793320517e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>6.188407031260112e-08</v>
+        <v>4.728552793320517e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>3.785265265265288</v>
+        <v>3.621821821821843</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.413773773773777</v>
+        <v>-7.725025025025074</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.984304304304352</v>
+        <v>14.96866866866876</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4909157148357659</v>
+        <v>0.2778734498295662</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4909157148357659</v>
+        <v>0.2778734498295662</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.612682868763351</v>
+        <v>5.408313578049335</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.563623752427267, 11.788989489953968]</t>
+          <t>[-3.1970599707920675, 14.013687126890737]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3782381493039351</v>
+        <v>0.2120899338252813</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3782381493039351</v>
+        <v>0.2120899338252813</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.408895331823159, 2.8302636518826962]</t>
+          <t>[-4.289421801297776, 1.9497371824080805]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8526634406416118</v>
+        <v>0.4540109772096392</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8526634406416118</v>
+        <v>0.4540109772096392</v>
       </c>
       <c r="T5" t="n">
-        <v>11.09135961807872</v>
+        <v>12.32187439751531</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.718030351046394, 15.464688885111038]</t>
+          <t>[7.634152931443001, 17.009595863587624]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.414265443233091e-06</v>
+        <v>3.434338591734587e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>6.414265443233091e-06</v>
+        <v>3.434338591734587e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>1.048928928928934</v>
+        <v>4.263663663663689</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.26126126126132</v>
+        <v>-7.106106106106154</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.35911911911918</v>
+        <v>15.63343343343353</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2649440241303815</v>
+        <v>0.1695594077599332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2649440241303815</v>
+        <v>0.1695594077599332</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.773747754174549</v>
+        <v>5.98965962936709</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.3820810818041025, 11.9295765901532]</t>
+          <t>[-1.7506894963256414, 13.73000875505982]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1858028306879234</v>
+        <v>0.1261066119403962</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1858028306879234</v>
+        <v>0.1261066119403962</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06289474781961513</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.1887637144545042, 3.062974218815274]</t>
+          <t>[-2.7170531058073886, 2.7296320553713107]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9678536711184469</v>
+        <v>0.9963092062637284</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9678536711184469</v>
+        <v>0.9963092062637284</v>
       </c>
       <c r="T6" t="n">
-        <v>11.23765287795921</v>
+        <v>12.41489401886843</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.02754297756451, 15.447762778353907]</t>
+          <t>[7.880249671218655, 16.949538366518198]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.605601418403936e-06</v>
+        <v>1.632992558509017e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.605601418403936e-06</v>
+        <v>1.632992558509017e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.228028028028028</v>
+        <v>22.87707707707722</v>
       </c>
       <c r="Y6" t="n">
-        <v>-11.10496496496502</v>
+        <v>12.95145145145154</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.56102102102108</v>
+        <v>32.8027027027029</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03773031785349157</v>
+        <v>0.7533099489732479</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03773031785349157</v>
+        <v>0.7533099489732479</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.351388862449644</v>
+        <v>2.032491414843876</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.18535578477766812, 12.888133509676956]</t>
+          <t>[-5.067277696383885, 9.132260526071637]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.05656961567851493</v>
+        <v>0.567090378209723</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05656961567851493</v>
+        <v>0.567090378209723</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4717106086471148</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1321054607530785, 2.075526678047308]</t>
+          <t>[-3.7170795961392757, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5565590026881657</v>
+        <v>0.7121286909759896</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5565590026881657</v>
+        <v>0.7121286909759896</v>
       </c>
       <c r="T7" t="n">
-        <v>10.95827495825596</v>
+        <v>10.29346004220456</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.520991703093516, 14.39555821341841]</t>
+          <t>[6.4121043912678655, 14.174815693141257]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.387356237842369e-08</v>
+        <v>2.928294086768091e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>7.387356237842369e-08</v>
+        <v>2.928294086768091e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>21.06978978978991</v>
+        <v>2.108908908908926</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.25507507507517</v>
+        <v>-9.329629629629686</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.88450450450465</v>
+        <v>13.54744744744754</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2159544491248743</v>
+        <v>0.473445337735977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2159544491248743</v>
+        <v>0.473445337735977</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.4736604706929</v>
+        <v>3.826495132904644</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.481004820383406, 13.428325761769207]</t>
+          <t>[-4.688258031317304, 12.34124829712659]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.172601849072237</v>
+        <v>0.3702173524437198</v>
       </c>
       <c r="O8" t="n">
-        <v>0.172601849072237</v>
+        <v>0.3702173524437198</v>
       </c>
       <c r="P8" t="n">
-        <v>1.075500187715424</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.0063424554457345, 4.157342830876583]</t>
+          <t>[-2.226474072814388, 4.050421759583236]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4857504624036335</v>
+        <v>0.5612961292497545</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4857504624036335</v>
+        <v>0.5612961292497545</v>
       </c>
       <c r="T8" t="n">
-        <v>10.99759057042256</v>
+        <v>10.9874353580308</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.694378454291696, 15.300802686553434]</t>
+          <t>[6.606330862918572, 15.36853985314302]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.622778271874296e-06</v>
+        <v>7.755754654725777e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.622778271874296e-06</v>
+        <v>7.755754654725777e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>18.88072072072082</v>
+        <v>19.5761761761763</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.707347347347389</v>
+        <v>8.137637637637688</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.05409409409426</v>
+        <v>31.01471471471491</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24978952569709</v>
+        <v>0.2272012321940686</v>
       </c>
       <c r="I9" t="n">
-        <v>0.24978952569709</v>
+        <v>0.2272012321940686</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.841338410673509</v>
+        <v>5.031866079228442</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.4759657434170457, 12.158642564764063]</t>
+          <t>[-2.4506199101561634, 12.514352068613046]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1893755501338448</v>
+        <v>0.1823531092176902</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1893755501338448</v>
+        <v>0.1823531092176902</v>
       </c>
       <c r="P9" t="n">
-        <v>1.201289683354656</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.8868424345884645, 4.289421801297776]</t>
+          <t>[-2.4969214884387334, 3.717079596139275]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.4374436396391208</v>
+        <v>0.6943560197245433</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4374436396391208</v>
+        <v>0.6943560197245433</v>
       </c>
       <c r="T9" t="n">
-        <v>12.39369698745238</v>
+        <v>12.24042536143376</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.40329574156707, 16.38409823333769]</t>
+          <t>[8.127164514591502, 16.353686208276013]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.302333070274386e-07</v>
+        <v>3.190791859619679e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.302333070274386e-07</v>
+        <v>3.190791859619679e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.42466466466476</v>
+        <v>20.6764764764766</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.228488488488527</v>
+        <v>9.352552552552609</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.620840840841</v>
+        <v>32.00040040040059</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.178738852024634</v>
+        <v>0.07571544386818341</v>
       </c>
       <c r="I10" t="n">
-        <v>0.178738852024634</v>
+        <v>0.07571544386818341</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.854488855029682</v>
+        <v>7.30351357532718</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.018198826057846, 13.72717653611721]</t>
+          <t>[-1.0328437585973713, 15.639870909251732]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1411730199289232</v>
+        <v>0.08442392624810036</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1411730199289232</v>
+        <v>0.08442392624810036</v>
       </c>
       <c r="P10" t="n">
-        <v>1.654131867655887</v>
+        <v>1.289342330302118</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, 4.377474448245238]</t>
+          <t>[-0.3836579616996545, 2.96234262230389]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.227566328014889</v>
+        <v>0.127614377326791</v>
       </c>
       <c r="S10" t="n">
-        <v>0.227566328014889</v>
+        <v>0.127614377326791</v>
       </c>
       <c r="T10" t="n">
-        <v>12.22962748167134</v>
+        <v>11.81283131895981</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.805691223231705, 16.653563740110968]</t>
+          <t>[7.352146697275085, 16.273515940644526]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.361379815767449e-06</v>
+        <v>3.005193751182134e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.361379815767449e-06</v>
+        <v>3.005193751182134e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>17.84376376376402</v>
+        <v>19.22608608608636</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.34600600600611</v>
+        <v>12.78510510510528</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.34152152152193</v>
+        <v>25.66706706706743</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4218897219190658</v>
+        <v>0.5214992729680443</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4218897219190658</v>
+        <v>0.5214992729680443</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.532586587048069</v>
+        <v>3.81377083538052</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.7514670591755355, 13.816640233271674]</t>
+          <t>[-5.060031386238212, 12.687573056999252]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.330712641485599</v>
+        <v>0.391290942464162</v>
       </c>
       <c r="O11" t="n">
-        <v>0.330712641485599</v>
+        <v>0.391290942464162</v>
       </c>
       <c r="P11" t="n">
-        <v>1.050342288587578</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.0755266780473107, 4.1762112552224675]</t>
+          <t>[-1.9623161319720026, 4.26426390216993]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5020153779220138</v>
+        <v>0.4603798677487578</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5020153779220138</v>
+        <v>0.4603798677487578</v>
       </c>
       <c r="T11" t="n">
-        <v>13.12816534460079</v>
+        <v>11.22308185700734</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.255043390241742, 18.001287298959834]</t>
+          <t>[6.489792550931774, 15.956371163082906]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.2011607889727e-06</v>
+        <v>1.93416202631802e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2011607889727e-06</v>
+        <v>1.93416202631802e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>20.1712112112115</v>
+        <v>19.75879879879908</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.121821821821939</v>
+        <v>7.772762762762872</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.22060060060106</v>
+        <v>31.74483483483528</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01637007527459189</v>
+        <v>0.03086180087599366</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01637007527459189</v>
+        <v>0.03086180087599366</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>9.226577861205339</v>
+        <v>7.319888981627217</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.7229433093720488, 17.73021241303863]</t>
+          <t>[0.29769541628110296, 14.342082546973332]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.03411043210895004</v>
+        <v>0.04141357944426938</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03411043210895004</v>
+        <v>0.04141357944426938</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.28931583997023136, 1.635263443310003]</t>
+          <t>[-1.0188949146777713, 1.710737140693542]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1658386942220593</v>
+        <v>0.6122054882354564</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1658386942220593</v>
+        <v>0.6122054882354564</v>
       </c>
       <c r="T12" t="n">
-        <v>11.67484468526416</v>
+        <v>12.4102385000977</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.308923597718001, 16.040765772810317]</t>
+          <t>[8.624241247074153, 16.19623575312124]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.520570201225425e-06</v>
+        <v>3.974011963947532e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>2.520570201225425e-06</v>
+        <v>3.974011963947532e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>21.62586586586617</v>
+        <v>22.85821821821854</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.91649649649675</v>
+        <v>17.60373373373397</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.3352352352356</v>
+        <v>28.1127027027031</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6414390034531265</v>
+        <v>0.0688885214592867</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6414390034531265</v>
+        <v>0.0688885214592867</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>2.911015843793296</v>
+        <v>6.480396475348624</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.355908252929237, 11.17793994051583]</t>
+          <t>[-1.1454736878819247, 14.106266638579173]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.4818451157041435</v>
+        <v>0.09386168376716175</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4818451157041435</v>
+        <v>0.09386168376716175</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8616580451287321</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.2705003962881185, 3.9938164865455827]</t>
+          <t>[-2.251631971942235, 3.798842768304775]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.5822668208007529</v>
+        <v>0.6090452238306416</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5822668208007529</v>
+        <v>0.6090452238306416</v>
       </c>
       <c r="T13" t="n">
-        <v>11.20668762466429</v>
+        <v>11.08139370314818</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.834956963943229, 15.578418285385345]</t>
+          <t>[7.215023892349519, 14.947763513946848]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.335360393265987e-06</v>
+        <v>6.784723058927966e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>5.335360393265987e-06</v>
+        <v>6.784723058927966e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>20.89853853853884</v>
+        <v>21.21165165165195</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.824904904905031</v>
+        <v>9.564614614614749</v>
       </c>
       <c r="Z13" t="n">
-        <v>32.97217217217264</v>
+        <v>32.85868868868916</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.445760795349372</v>
+        <v>0.20924721490769</v>
       </c>
       <c r="I14" t="n">
-        <v>0.445760795349372</v>
+        <v>0.20924721490769</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.898485268692893</v>
+        <v>5.310362497701551</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.505117269817758, 12.302087807203543]</t>
+          <t>[-2.9512292091615517, 13.571954204564653]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3551074590829546</v>
+        <v>0.2020552979127934</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3551074590829546</v>
+        <v>0.2020552979127934</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9119738433844242</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.226474072814388, 4.050421759583236]</t>
+          <t>[-2.0252108797916186, 4.125895456966775]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5612961292497545</v>
+        <v>0.4950820400452178</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5612961292497545</v>
+        <v>0.4950820400452178</v>
       </c>
       <c r="T14" t="n">
-        <v>12.62846919451607</v>
+        <v>11.1076220037151</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.299411923061701, 16.95752646597043]</t>
+          <t>[6.906388528170153, 15.30885547926004]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.778328046572966e-07</v>
+        <v>3.094545358850453e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>4.778328046572966e-07</v>
+        <v>3.094545358850453e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>20.70458458458488</v>
+        <v>20.14622622622651</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.606706706706833</v>
+        <v>8.305475475475591</v>
       </c>
       <c r="Z14" t="n">
-        <v>32.80246246246293</v>
+        <v>31.98697697697743</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2501368687555463</v>
+        <v>0.135174085038736</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2501368687555463</v>
+        <v>0.135174085038736</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.686863483889277</v>
+        <v>6.089573472396521</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.937488879658374, 14.311215847436927]</t>
+          <t>[-1.4556335765310955, 13.634780521324137]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1908448773431952</v>
+        <v>0.1110318122175475</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1908448773431952</v>
+        <v>0.1110318122175475</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3207632138800385</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.7925268031909276, 3.4340532309510046]</t>
+          <t>[-1.6101055441821561, 2.0755266780473107]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.8365449654750285</v>
+        <v>0.8003910285961722</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8365449654750285</v>
+        <v>0.8003910285961722</v>
       </c>
       <c r="T15" t="n">
-        <v>12.30083703211145</v>
+        <v>11.23520845080248</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.5374479548934294, 17.064226109329468]</t>
+          <t>[7.017831447489769, 15.452585454115187]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.694949261141446e-06</v>
+        <v>2.698981005799794e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>4.694949261141446e-06</v>
+        <v>2.698981005799794e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>22.98354354354387</v>
+        <v>23.2940740740744</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.9826426426428</v>
+        <v>16.19930930930954</v>
       </c>
       <c r="Z15" t="n">
-        <v>34.98444444444495</v>
+        <v>30.38883883883927</v>
       </c>
     </row>
   </sheetData>
